--- a/_CLUSTER/groups_time_area/PCA_time_coord/1_groups_PCA_Time_coord.xlsx
+++ b/_CLUSTER/groups_time_area/PCA_time_coord/1_groups_PCA_Time_coord.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Desktop\python_map\New\Vistelius_1995_OCR\_CLUSTER\groups_time_area\PCA_time_coord\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31448F1D-6BDA-4E21-B021-5DD678E0069D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02EC56C8-0A90-40D5-8317-F1E929940CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FAD1B79A-B2C8-43B6-B8E3-06068757A8CC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FAD1B79A-B2C8-43B6-B8E3-06068757A8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2_groups" sheetId="3" r:id="rId1"/>
     <sheet name="3_Groups" sheetId="1" r:id="rId2"/>
     <sheet name="5_groups" sheetId="2" r:id="rId3"/>
+    <sheet name="Birch(4)" sheetId="4" r:id="rId4"/>
+    <sheet name="K_means(4)" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="57">
   <si>
     <t>Area1</t>
   </si>
@@ -185,6 +187,27 @@
   </si>
   <si>
     <t>area3</t>
+  </si>
+  <si>
+    <t>Area1_total</t>
+  </si>
+  <si>
+    <t>Area2_total</t>
+  </si>
+  <si>
+    <t>Are3_Pg</t>
+  </si>
+  <si>
+    <t>Area3_total</t>
+  </si>
+  <si>
+    <t>Area4_total</t>
+  </si>
+  <si>
+    <t>Area5_total</t>
+  </si>
+  <si>
+    <t>Area4+5_total</t>
   </si>
 </sst>
 </file>
@@ -652,7 +675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94D39B75-A7CF-4E65-85C0-1CFAB6A02AF1}">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="V47" sqref="V47:X50"/>
     </sheetView>
   </sheetViews>
@@ -4259,7 +4282,7 @@
         <v>516</v>
       </c>
       <c r="X3">
-        <f>W3/$W$8*100</f>
+        <f t="shared" ref="X3:X8" si="0">W3/$W$8*100</f>
         <v>35.415236787920385</v>
       </c>
     </row>
@@ -4271,7 +4294,7 @@
         <v>19</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D8" si="0">C4/469*100</f>
+        <f t="shared" ref="D4:D8" si="1">C4/469*100</f>
         <v>4.0511727078891262</v>
       </c>
       <c r="F4" s="8">
@@ -4281,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H8" si="1">G4/298*100</f>
+        <f t="shared" ref="H4:H8" si="2">G4/298*100</f>
         <v>2.348993288590604</v>
       </c>
       <c r="J4" s="8">
@@ -4291,7 +4314,7 @@
         <v>18</v>
       </c>
       <c r="L4">
-        <f t="shared" ref="L4:L8" si="2">K4/630*100</f>
+        <f t="shared" ref="L4:L8" si="3">K4/630*100</f>
         <v>2.8571428571428572</v>
       </c>
       <c r="N4" s="5">
@@ -4310,18 +4333,18 @@
         <v>2</v>
       </c>
       <c r="T4">
-        <f t="shared" ref="T4:T8" si="3">S4/57*100</f>
+        <f t="shared" ref="T4:T8" si="4">S4/57*100</f>
         <v>3.5087719298245612</v>
       </c>
       <c r="V4" s="5">
         <v>1</v>
       </c>
       <c r="W4">
-        <f t="shared" ref="W4:W8" si="4">C4+G4+K4+O4+S4</f>
+        <f t="shared" ref="W4:W8" si="5">C4+G4+K4+O4+S4</f>
         <v>46</v>
       </c>
       <c r="X4">
-        <f>W4/$W$8*100</f>
+        <f t="shared" si="0"/>
         <v>3.1571722717913522</v>
       </c>
     </row>
@@ -4333,7 +4356,7 @@
         <v>209</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>44.562899786780385</v>
       </c>
       <c r="F5" s="10">
@@ -4343,7 +4366,7 @@
         <v>118</v>
       </c>
       <c r="H5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.597315436241608</v>
       </c>
       <c r="J5" s="10">
@@ -4353,7 +4376,7 @@
         <v>235</v>
       </c>
       <c r="L5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.301587301587304</v>
       </c>
       <c r="N5" s="8">
@@ -4372,18 +4395,18 @@
         <v>32</v>
       </c>
       <c r="T5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.140350877192979</v>
       </c>
       <c r="V5" s="5">
         <v>2</v>
       </c>
       <c r="W5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>594</v>
       </c>
       <c r="X5">
-        <f>W5/$W$8*100</f>
+        <f t="shared" si="0"/>
         <v>40.768702814001372</v>
       </c>
     </row>
@@ -4395,7 +4418,7 @@
         <v>16</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.4115138592750531</v>
       </c>
       <c r="F6" s="8">
@@ -4405,7 +4428,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.0201342281879198</v>
       </c>
       <c r="J6" s="8">
@@ -4415,7 +4438,7 @@
         <v>18</v>
       </c>
       <c r="L6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.8571428571428572</v>
       </c>
       <c r="N6" s="8">
@@ -4434,18 +4457,18 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="V6" s="5">
         <v>3</v>
       </c>
       <c r="W6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="X6">
-        <f>W6/$W$8*100</f>
+        <f t="shared" si="0"/>
         <v>2.9512697323266988</v>
       </c>
     </row>
@@ -4457,7 +4480,7 @@
         <v>77</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.417910447761194</v>
       </c>
       <c r="F7" s="8">
@@ -4467,7 +4490,7 @@
         <v>47</v>
       </c>
       <c r="H7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15.771812080536913</v>
       </c>
       <c r="J7" s="8">
@@ -4477,7 +4500,7 @@
         <v>126</v>
       </c>
       <c r="L7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="N7" s="5">
@@ -4496,18 +4519,18 @@
         <v>8</v>
       </c>
       <c r="T7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14.035087719298245</v>
       </c>
       <c r="V7" s="5">
         <v>4</v>
       </c>
       <c r="W7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>258</v>
       </c>
       <c r="X7">
-        <f>W7/$W$8*100</f>
+        <f t="shared" si="0"/>
         <v>17.707618393960193</v>
       </c>
     </row>
@@ -4517,7 +4540,7 @@
         <v>469</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="G8" s="6">
@@ -4525,7 +4548,7 @@
         <v>298</v>
       </c>
       <c r="H8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K8" s="6">
@@ -4533,7 +4556,7 @@
         <v>630</v>
       </c>
       <c r="L8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="O8" s="6">
@@ -4547,15 +4570,15 @@
         <v>57</v>
       </c>
       <c r="T8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>100</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1457</v>
       </c>
       <c r="X8">
-        <f>W8/$W$8*100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
@@ -4660,7 +4683,7 @@
         <v>298</v>
       </c>
       <c r="X14">
-        <f>W14/$W$19*100</f>
+        <f t="shared" ref="X14:X19" si="6">W14/$W$19*100</f>
         <v>28.736740597878494</v>
       </c>
     </row>
@@ -4681,7 +4704,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" ref="H15:H19" si="5">G15/7*100</f>
+        <f t="shared" ref="H15:H19" si="7">G15/7*100</f>
         <v>0</v>
       </c>
       <c r="J15" s="8">
@@ -4691,7 +4714,7 @@
         <v>34</v>
       </c>
       <c r="L15">
-        <f t="shared" ref="L15:L19" si="6">K15/714*100</f>
+        <f t="shared" ref="L15:L19" si="8">K15/714*100</f>
         <v>4.7619047619047619</v>
       </c>
       <c r="N15" s="8">
@@ -4701,18 +4724,18 @@
         <v>13</v>
       </c>
       <c r="P15">
-        <f t="shared" ref="P15:P19" si="7">O15/315*100</f>
+        <f t="shared" ref="P15:P19" si="9">O15/315*100</f>
         <v>4.1269841269841265</v>
       </c>
       <c r="V15" s="5">
         <v>1</v>
       </c>
       <c r="W15">
-        <f t="shared" ref="W15:W19" si="8">C15+G15+K15+O15</f>
+        <f t="shared" ref="W15:W19" si="10">C15+G15+K15+O15</f>
         <v>47</v>
       </c>
       <c r="X15">
-        <f>W15/$W$19*100</f>
+        <f t="shared" si="6"/>
         <v>4.532304725168756</v>
       </c>
     </row>
@@ -4733,7 +4756,7 @@
         <v>2</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>28.571428571428569</v>
       </c>
       <c r="J16" s="8">
@@ -4743,7 +4766,7 @@
         <v>346</v>
       </c>
       <c r="L16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>48.459383753501399</v>
       </c>
       <c r="N16" s="8">
@@ -4753,18 +4776,18 @@
         <v>138</v>
       </c>
       <c r="P16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>43.80952380952381</v>
       </c>
       <c r="V16" s="5">
         <v>2</v>
       </c>
       <c r="W16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>486</v>
       </c>
       <c r="X16">
-        <f>W16/$W$19*100</f>
+        <f t="shared" si="6"/>
         <v>46.865959498553522</v>
       </c>
     </row>
@@ -4785,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.285714285714285</v>
       </c>
       <c r="J17" s="8">
@@ -4795,7 +4818,7 @@
         <v>36</v>
       </c>
       <c r="L17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.0420168067226889</v>
       </c>
       <c r="N17" s="8">
@@ -4805,18 +4828,18 @@
         <v>10</v>
       </c>
       <c r="P17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1746031746031744</v>
       </c>
       <c r="V17" s="5">
         <v>3</v>
       </c>
       <c r="W17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>47</v>
       </c>
       <c r="X17">
-        <f>W17/$W$19*100</f>
+        <f t="shared" si="6"/>
         <v>4.532304725168756</v>
       </c>
     </row>
@@ -4837,7 +4860,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>14.285714285714285</v>
       </c>
       <c r="J18" s="8">
@@ -4847,7 +4870,7 @@
         <v>105</v>
       </c>
       <c r="L18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>14.705882352941178</v>
       </c>
       <c r="N18" s="8">
@@ -4857,18 +4880,18 @@
         <v>53</v>
       </c>
       <c r="P18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>16.825396825396826</v>
       </c>
       <c r="V18" s="5">
         <v>4</v>
       </c>
       <c r="W18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>159</v>
       </c>
       <c r="X18">
-        <f>W18/$W$19*100</f>
+        <f t="shared" si="6"/>
         <v>15.332690453230471</v>
       </c>
     </row>
@@ -4884,7 +4907,7 @@
         <v>7</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>100</v>
       </c>
       <c r="K19" s="6">
@@ -4892,7 +4915,7 @@
         <v>714</v>
       </c>
       <c r="L19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="O19" s="6">
@@ -4900,15 +4923,15 @@
         <v>315</v>
       </c>
       <c r="P19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="W19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1037</v>
       </c>
       <c r="X19">
-        <f>W19/$W$19*100</f>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
     </row>
@@ -5013,7 +5036,7 @@
         <v>319</v>
       </c>
       <c r="X25">
-        <f>W25/$W$30*100</f>
+        <f t="shared" ref="X25:X30" si="11">W25/$W$30*100</f>
         <v>28.790613718411549</v>
       </c>
     </row>
@@ -5034,7 +5057,7 @@
         <v>3</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26:H30" si="9">G26/99*100</f>
+        <f t="shared" ref="H26:H30" si="12">G26/99*100</f>
         <v>3.0303030303030303</v>
       </c>
       <c r="J26" s="8">
@@ -5044,7 +5067,7 @@
         <v>41</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26:L30" si="10">K26/1001*100</f>
+        <f t="shared" ref="L26:L30" si="13">K26/1001*100</f>
         <v>4.0959040959040962</v>
       </c>
       <c r="N26" s="8">
@@ -5054,18 +5077,18 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26:P30" si="11">O26/7*100</f>
+        <f t="shared" ref="P26:P30" si="14">O26/7*100</f>
         <v>0</v>
       </c>
       <c r="V26" s="5">
         <v>1</v>
       </c>
       <c r="W26">
-        <f t="shared" ref="W26:W30" si="12">C26+G26+K26+O26</f>
+        <f t="shared" ref="W26:W30" si="15">C26+G26+K26+O26</f>
         <v>44</v>
       </c>
       <c r="X26">
-        <f>W26/$W$30*100</f>
+        <f t="shared" si="11"/>
         <v>3.9711191335740073</v>
       </c>
     </row>
@@ -5086,7 +5109,7 @@
         <v>52</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>52.525252525252533</v>
       </c>
       <c r="J27" s="8">
@@ -5096,7 +5119,7 @@
         <v>467</v>
       </c>
       <c r="L27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>46.653346653346652</v>
       </c>
       <c r="N27" s="10">
@@ -5106,18 +5129,18 @@
         <v>2</v>
       </c>
       <c r="P27">
+        <f t="shared" si="14"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V27" s="5">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="15"/>
+        <v>522</v>
+      </c>
+      <c r="X27">
         <f t="shared" si="11"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="V27" s="5">
-        <v>2</v>
-      </c>
-      <c r="W27">
-        <f t="shared" si="12"/>
-        <v>522</v>
-      </c>
-      <c r="X27">
-        <f>W27/$W$30*100</f>
         <v>47.111913357400717</v>
       </c>
     </row>
@@ -5138,7 +5161,7 @@
         <v>3</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>3.0303030303030303</v>
       </c>
       <c r="J28" s="8">
@@ -5148,7 +5171,7 @@
         <v>44</v>
       </c>
       <c r="L28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>4.395604395604396</v>
       </c>
       <c r="N28" s="8">
@@ -5158,18 +5181,18 @@
         <v>2</v>
       </c>
       <c r="P28">
+        <f t="shared" si="14"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V28" s="5">
+        <v>3</v>
+      </c>
+      <c r="W28">
+        <f t="shared" si="15"/>
+        <v>49</v>
+      </c>
+      <c r="X28">
         <f t="shared" si="11"/>
-        <v>28.571428571428569</v>
-      </c>
-      <c r="V28" s="5">
-        <v>3</v>
-      </c>
-      <c r="W28">
-        <f t="shared" si="12"/>
-        <v>49</v>
-      </c>
-      <c r="X28">
-        <f>W28/$W$30*100</f>
         <v>4.4223826714801442</v>
       </c>
     </row>
@@ -5190,7 +5213,7 @@
         <v>10</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>10.1010101010101</v>
       </c>
       <c r="J29" s="8">
@@ -5200,7 +5223,7 @@
         <v>163</v>
       </c>
       <c r="L29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>16.283716283716284</v>
       </c>
       <c r="N29" s="5">
@@ -5210,18 +5233,18 @@
         <v>1</v>
       </c>
       <c r="P29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>14.285714285714285</v>
       </c>
       <c r="V29" s="5">
         <v>4</v>
       </c>
       <c r="W29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>174</v>
       </c>
       <c r="X29">
-        <f>W29/$W$30*100</f>
+        <f t="shared" si="11"/>
         <v>15.703971119133575</v>
       </c>
     </row>
@@ -5237,7 +5260,7 @@
         <v>99</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>100</v>
       </c>
       <c r="K30" s="6">
@@ -5245,7 +5268,7 @@
         <v>1001</v>
       </c>
       <c r="L30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="O30" s="6">
@@ -5253,15 +5276,15 @@
         <v>7</v>
       </c>
       <c r="P30">
+        <f t="shared" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="W30">
+        <f t="shared" si="15"/>
+        <v>1108</v>
+      </c>
+      <c r="X30">
         <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="W30">
-        <f t="shared" si="12"/>
-        <v>1108</v>
-      </c>
-      <c r="X30">
-        <f>W30/$W$30*100</f>
         <v>100</v>
       </c>
     </row>
@@ -5365,7 +5388,7 @@
         <v>114</v>
       </c>
       <c r="X36">
-        <f>W36/$W$41*100</f>
+        <f t="shared" ref="X36:X41" si="16">W36/$W$41*100</f>
         <v>24.050632911392405</v>
       </c>
     </row>
@@ -5386,7 +5409,7 @@
         <v>12</v>
       </c>
       <c r="H37">
-        <f t="shared" ref="H37:H41" si="13">G37/455*100</f>
+        <f t="shared" ref="H37:H41" si="17">G37/455*100</f>
         <v>2.6373626373626373</v>
       </c>
       <c r="J37" s="5">
@@ -5405,18 +5428,18 @@
         <v>1</v>
       </c>
       <c r="P37">
-        <f t="shared" ref="P37:P41" si="14">O37/15*100</f>
+        <f t="shared" ref="P37:P41" si="18">O37/15*100</f>
         <v>6.666666666666667</v>
       </c>
       <c r="V37" s="5">
         <v>1</v>
       </c>
       <c r="W37">
-        <f t="shared" ref="W37:W41" si="15">C37+G37+K37+O37</f>
+        <f t="shared" ref="W37:W41" si="19">C37+G37+K37+O37</f>
         <v>13</v>
       </c>
       <c r="X37">
-        <f>W37/$W$41*100</f>
+        <f t="shared" si="16"/>
         <v>2.7426160337552745</v>
       </c>
     </row>
@@ -5437,7 +5460,7 @@
         <v>253</v>
       </c>
       <c r="H38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>55.604395604395606</v>
       </c>
       <c r="J38" s="8">
@@ -5456,18 +5479,18 @@
         <v>9</v>
       </c>
       <c r="P38">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>60</v>
       </c>
       <c r="V38" s="5">
         <v>2</v>
       </c>
       <c r="W38">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>266</v>
       </c>
       <c r="X38">
-        <f>W38/$W$41*100</f>
+        <f t="shared" si="16"/>
         <v>56.118143459915615</v>
       </c>
     </row>
@@ -5488,7 +5511,7 @@
         <v>11</v>
       </c>
       <c r="H39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>2.4175824175824179</v>
       </c>
       <c r="J39" s="5">
@@ -5507,18 +5530,18 @@
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V39" s="5">
         <v>3</v>
       </c>
       <c r="W39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="X39">
-        <f>W39/$W$41*100</f>
+        <f t="shared" si="16"/>
         <v>2.3206751054852321</v>
       </c>
     </row>
@@ -5539,7 +5562,7 @@
         <v>69</v>
       </c>
       <c r="H40">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>15.164835164835164</v>
       </c>
       <c r="J40" s="8">
@@ -5558,18 +5581,18 @@
         <v>1</v>
       </c>
       <c r="P40">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>6.666666666666667</v>
       </c>
       <c r="V40" s="5">
         <v>4</v>
       </c>
       <c r="W40">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>70</v>
       </c>
       <c r="X40">
-        <f>W40/$W$41*100</f>
+        <f t="shared" si="16"/>
         <v>14.767932489451477</v>
       </c>
     </row>
@@ -5585,7 +5608,7 @@
         <v>455</v>
       </c>
       <c r="H41">
-        <f t="shared" si="13"/>
+        <f t="shared" si="17"/>
         <v>100</v>
       </c>
       <c r="K41">
@@ -5599,15 +5622,15 @@
         <v>15</v>
       </c>
       <c r="P41">
-        <f t="shared" si="14"/>
+        <f t="shared" si="18"/>
         <v>100</v>
       </c>
       <c r="W41">
-        <f t="shared" si="15"/>
+        <f t="shared" si="19"/>
         <v>474</v>
       </c>
       <c r="X41">
-        <f>W41/$W$41*100</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
     </row>
@@ -5693,7 +5716,7 @@
         <v>53</v>
       </c>
       <c r="X47">
-        <f>W47/$W$52*100</f>
+        <f t="shared" ref="X47:X52" si="20">W47/$W$52*100</f>
         <v>29.608938547486037</v>
       </c>
     </row>
@@ -5705,7 +5728,7 @@
         <v>8</v>
       </c>
       <c r="D48">
-        <f t="shared" ref="D48:D52" si="16">C48/164*100</f>
+        <f t="shared" ref="D48:D52" si="21">C48/164*100</f>
         <v>4.8780487804878048</v>
       </c>
       <c r="F48" s="10">
@@ -5715,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" ref="H48:H52" si="17">G48/13*100</f>
+        <f t="shared" ref="H48:H52" si="22">G48/13*100</f>
         <v>0</v>
       </c>
       <c r="J48" s="5">
@@ -5731,11 +5754,11 @@
         <v>1</v>
       </c>
       <c r="W48">
-        <f t="shared" ref="W48:W52" si="18">C48+G48+K48</f>
+        <f t="shared" ref="W48:W52" si="23">C48+G48+K48</f>
         <v>8</v>
       </c>
       <c r="X48">
-        <f>W48/$W$52*100</f>
+        <f t="shared" si="20"/>
         <v>4.4692737430167595</v>
       </c>
     </row>
@@ -5747,7 +5770,7 @@
         <v>76</v>
       </c>
       <c r="D49">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>46.341463414634148</v>
       </c>
       <c r="F49" s="8">
@@ -5757,7 +5780,7 @@
         <v>5</v>
       </c>
       <c r="H49">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>38.461538461538467</v>
       </c>
       <c r="J49" s="5">
@@ -5773,11 +5796,11 @@
         <v>2</v>
       </c>
       <c r="W49">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>82</v>
       </c>
       <c r="X49">
-        <f>W49/$W$52*100</f>
+        <f t="shared" si="20"/>
         <v>45.81005586592179</v>
       </c>
     </row>
@@ -5789,7 +5812,7 @@
         <v>10</v>
       </c>
       <c r="D50">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>6.0975609756097562</v>
       </c>
       <c r="F50" s="8">
@@ -5799,7 +5822,7 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="J50" s="8">
@@ -5815,11 +5838,11 @@
         <v>3</v>
       </c>
       <c r="W50">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>11</v>
       </c>
       <c r="X50">
-        <f>W50/$W$52*100</f>
+        <f t="shared" si="20"/>
         <v>6.1452513966480442</v>
       </c>
     </row>
@@ -5831,7 +5854,7 @@
         <v>24</v>
       </c>
       <c r="D51">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>14.634146341463413</v>
       </c>
       <c r="F51" s="8">
@@ -5841,7 +5864,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>7.6923076923076925</v>
       </c>
       <c r="J51" s="5">
@@ -5857,11 +5880,11 @@
         <v>4</v>
       </c>
       <c r="W51">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="X51">
-        <f>W51/$W$52*100</f>
+        <f t="shared" si="20"/>
         <v>13.966480446927374</v>
       </c>
     </row>
@@ -5871,7 +5894,7 @@
         <v>164</v>
       </c>
       <c r="D52">
-        <f t="shared" si="16"/>
+        <f t="shared" si="21"/>
         <v>100</v>
       </c>
       <c r="G52" s="6">
@@ -5879,7 +5902,7 @@
         <v>13</v>
       </c>
       <c r="H52">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>100</v>
       </c>
       <c r="K52" s="6">
@@ -5889,11 +5912,11 @@
         <v>100</v>
       </c>
       <c r="W52">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>179</v>
       </c>
       <c r="X52">
-        <f>W52/$W$52*100</f>
+        <f t="shared" si="20"/>
         <v>100</v>
       </c>
     </row>
@@ -5968,7 +5991,7 @@
         <v>149</v>
       </c>
       <c r="D59">
-        <f>C59/$C$64*100</f>
+        <f t="shared" ref="D59:D64" si="24">C59/$C$64*100</f>
         <v>31.634819532908704</v>
       </c>
       <c r="F59" s="8">
@@ -5988,7 +6011,7 @@
         <v>267</v>
       </c>
       <c r="L59">
-        <f>K59/$K$64*100</f>
+        <f t="shared" ref="L59:L64" si="25">K59/$K$64*100</f>
         <v>36.227951153324291</v>
       </c>
       <c r="N59" s="5">
@@ -5999,7 +6022,7 @@
         <v>638</v>
       </c>
       <c r="P59">
-        <f>O59/$O$64*100</f>
+        <f t="shared" ref="P59:P64" si="26">O59/$O$64*100</f>
         <v>27.29995721009842</v>
       </c>
       <c r="R59" s="5">
@@ -6010,7 +6033,7 @@
         <v>109</v>
       </c>
       <c r="T59">
-        <f>S59/$S$64*100</f>
+        <f t="shared" ref="T59:T64" si="27">S59/$S$64*100</f>
         <v>32.248520710059168</v>
       </c>
       <c r="V59" s="5">
@@ -6021,7 +6044,7 @@
         <v>20</v>
       </c>
       <c r="X59">
-        <f>W59/$W$64*100</f>
+        <f t="shared" ref="X59:X64" si="28">W59/$W$64*100</f>
         <v>27.027027027027028</v>
       </c>
     </row>
@@ -6030,11 +6053,11 @@
         <v>1</v>
       </c>
       <c r="C60">
-        <f t="shared" ref="C60:C64" si="19">C4+C15+C26</f>
+        <f t="shared" ref="C60:C64" si="29">C4+C15+C26</f>
         <v>19</v>
       </c>
       <c r="D60">
-        <f>C60/$C$64*100</f>
+        <f t="shared" si="24"/>
         <v>4.0339702760084926</v>
       </c>
       <c r="F60" s="8">
@@ -6050,44 +6073,44 @@
         <v>1</v>
       </c>
       <c r="K60">
-        <f t="shared" ref="K60:K64" si="20">K4+G15+G26+C37</f>
+        <f t="shared" ref="K60:K64" si="30">K4+G15+G26+C37</f>
         <v>21</v>
       </c>
       <c r="L60">
-        <f>K60/$K$64*100</f>
+        <f t="shared" si="25"/>
         <v>2.8493894165535956</v>
       </c>
       <c r="N60" s="5">
         <v>1</v>
       </c>
       <c r="O60">
-        <f t="shared" ref="O60:O64" si="21">O4+K15+K26+G37+C48</f>
+        <f t="shared" ref="O60:O64" si="31">O4+K15+K26+G37+C48</f>
         <v>95</v>
       </c>
       <c r="P60">
-        <f>O60/$O$64*100</f>
+        <f t="shared" si="26"/>
         <v>4.0650406504065035</v>
       </c>
       <c r="R60" s="5">
         <v>1</v>
       </c>
       <c r="S60">
-        <f t="shared" ref="S60:S64" si="22">O15+O26+K37+G48</f>
+        <f t="shared" ref="S60:S64" si="32">O15+O26+K37+G48</f>
         <v>13</v>
       </c>
       <c r="T60">
-        <f>S60/$S$64*100</f>
+        <f t="shared" si="27"/>
         <v>3.8461538461538463</v>
       </c>
       <c r="V60" s="5">
         <v>1</v>
       </c>
       <c r="W60">
-        <f t="shared" ref="W60:W64" si="23">S4+O37+K48</f>
+        <f t="shared" ref="W60:W64" si="33">S4+O37+K48</f>
         <v>3</v>
       </c>
       <c r="X60">
-        <f>W60/$W$64*100</f>
+        <f t="shared" si="28"/>
         <v>4.0540540540540544</v>
       </c>
     </row>
@@ -6096,11 +6119,11 @@
         <v>2</v>
       </c>
       <c r="C61">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>210</v>
       </c>
       <c r="D61">
-        <f>C61/$C$64*100</f>
+        <f t="shared" si="24"/>
         <v>44.585987261146499</v>
       </c>
       <c r="F61" s="8">
@@ -6116,44 +6139,44 @@
         <v>2</v>
       </c>
       <c r="K61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>290</v>
       </c>
       <c r="L61">
-        <f>K61/$K$64*100</f>
+        <f t="shared" si="25"/>
         <v>39.348710990502035</v>
       </c>
       <c r="N61" s="5">
         <v>2</v>
       </c>
       <c r="O61">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>1142</v>
       </c>
       <c r="P61">
-        <f>O61/$O$64*100</f>
+        <f t="shared" si="26"/>
         <v>48.866067608044503</v>
       </c>
       <c r="R61" s="5">
         <v>2</v>
       </c>
       <c r="S61">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>148</v>
       </c>
       <c r="T61">
-        <f>S61/$S$64*100</f>
+        <f t="shared" si="27"/>
         <v>43.786982248520715</v>
       </c>
       <c r="V61" s="5">
         <v>2</v>
       </c>
       <c r="W61">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>42</v>
       </c>
       <c r="X61">
-        <f>W61/$W$64*100</f>
+        <f t="shared" si="28"/>
         <v>56.756756756756758</v>
       </c>
     </row>
@@ -6162,11 +6185,11 @@
         <v>3</v>
       </c>
       <c r="C62">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>16</v>
       </c>
       <c r="D62">
-        <f>C62/$C$64*100</f>
+        <f t="shared" si="24"/>
         <v>3.397027600849257</v>
       </c>
       <c r="F62" s="8">
@@ -6182,44 +6205,44 @@
         <v>3</v>
       </c>
       <c r="K62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>22</v>
       </c>
       <c r="L62">
-        <f>K62/$K$64*100</f>
+        <f t="shared" si="25"/>
         <v>2.9850746268656714</v>
       </c>
       <c r="N62" s="5">
         <v>3</v>
       </c>
       <c r="O62">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>101</v>
       </c>
       <c r="P62">
-        <f>O62/$O$64*100</f>
+        <f t="shared" si="26"/>
         <v>4.321780059905862</v>
       </c>
       <c r="R62" s="5">
         <v>3</v>
       </c>
       <c r="S62">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>13</v>
       </c>
       <c r="T62">
-        <f>S62/$S$64*100</f>
+        <f t="shared" si="27"/>
         <v>3.8461538461538463</v>
       </c>
       <c r="V62" s="5">
         <v>3</v>
       </c>
       <c r="W62">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X62">
-        <f>W62/$W$64*100</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
     </row>
@@ -6228,11 +6251,11 @@
         <v>4</v>
       </c>
       <c r="C63">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>77</v>
       </c>
       <c r="D63">
-        <f>C63/$C$64*100</f>
+        <f t="shared" si="24"/>
         <v>16.348195329087048</v>
       </c>
       <c r="F63" s="8">
@@ -6248,54 +6271,54 @@
         <v>4</v>
       </c>
       <c r="K63">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>137</v>
       </c>
       <c r="L63">
-        <f>K63/$K$64*100</f>
+        <f t="shared" si="25"/>
         <v>18.588873812754407</v>
       </c>
       <c r="N63" s="5">
         <v>4</v>
       </c>
       <c r="O63">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>361</v>
       </c>
       <c r="P63">
-        <f>O63/$O$64*100</f>
+        <f t="shared" si="26"/>
         <v>15.447154471544716</v>
       </c>
       <c r="R63" s="5">
         <v>4</v>
       </c>
       <c r="S63">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>55</v>
       </c>
       <c r="T63">
-        <f>S63/$S$64*100</f>
+        <f t="shared" si="27"/>
         <v>16.272189349112427</v>
       </c>
       <c r="V63" s="5">
         <v>4</v>
       </c>
       <c r="W63">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="X63">
-        <f>W63/$W$64*100</f>
+        <f t="shared" si="28"/>
         <v>12.162162162162163</v>
       </c>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C64">
-        <f t="shared" si="19"/>
+        <f t="shared" si="29"/>
         <v>471</v>
       </c>
       <c r="D64">
-        <f>C64/$C$64*100</f>
+        <f t="shared" si="24"/>
         <v>100</v>
       </c>
       <c r="G64">
@@ -6305,35 +6328,35 @@
         <v>100</v>
       </c>
       <c r="K64">
-        <f t="shared" si="20"/>
+        <f t="shared" si="30"/>
         <v>737</v>
       </c>
       <c r="L64">
-        <f>K64/$K$64*100</f>
+        <f t="shared" si="25"/>
         <v>100</v>
       </c>
       <c r="O64">
-        <f t="shared" si="21"/>
+        <f t="shared" si="31"/>
         <v>2337</v>
       </c>
       <c r="P64">
-        <f>O64/$O$64*100</f>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="S64">
-        <f t="shared" si="22"/>
+        <f t="shared" si="32"/>
         <v>338</v>
       </c>
       <c r="T64">
-        <f>S64/$S$64*100</f>
+        <f t="shared" si="27"/>
         <v>100</v>
       </c>
       <c r="W64">
-        <f t="shared" si="23"/>
+        <f t="shared" si="33"/>
         <v>74</v>
       </c>
       <c r="X64">
-        <f>W64/$W$64*100</f>
+        <f t="shared" si="28"/>
         <v>100</v>
       </c>
     </row>
@@ -6398,11 +6421,11 @@
         <v>0</v>
       </c>
       <c r="C67">
-        <f>C59+G59+K59+O59+S59+W59</f>
+        <f t="shared" ref="C67:C72" si="34">C59+G59+K59+O59+S59+W59</f>
         <v>1300</v>
       </c>
       <c r="D67">
-        <f>C67/$C$72*100</f>
+        <f t="shared" ref="D67:D72" si="35">C67/$C$72*100</f>
         <v>30.552291421856637</v>
       </c>
       <c r="F67" s="5">
@@ -6456,11 +6479,11 @@
         <v>1</v>
       </c>
       <c r="C68">
-        <f>C60+G60+K60+O60+S60+W60</f>
+        <f t="shared" si="34"/>
         <v>158</v>
       </c>
       <c r="D68">
-        <f>C68/$C$72*100</f>
+        <f t="shared" si="35"/>
         <v>3.7132784958871916</v>
       </c>
       <c r="F68" s="5">
@@ -6514,11 +6537,11 @@
         <v>2</v>
       </c>
       <c r="C69">
-        <f>C61+G61+K61+O61+S61+W61</f>
+        <f t="shared" si="34"/>
         <v>1950</v>
       </c>
       <c r="D69">
-        <f>C69/$C$72*100</f>
+        <f t="shared" si="35"/>
         <v>45.828437132784963</v>
       </c>
       <c r="F69" s="5">
@@ -6572,11 +6595,11 @@
         <v>3</v>
       </c>
       <c r="C70">
-        <f>C62+G62+K62+O62+S62+W62</f>
+        <f t="shared" si="34"/>
         <v>161</v>
       </c>
       <c r="D70">
-        <f>C70/$C$72*100</f>
+        <f t="shared" si="35"/>
         <v>3.7837837837837842</v>
       </c>
       <c r="F70" s="5">
@@ -6630,11 +6653,11 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <f>C63+G63+K63+O63+S63+W63</f>
+        <f t="shared" si="34"/>
         <v>686</v>
       </c>
       <c r="D71">
-        <f>C71/$C$72*100</f>
+        <f t="shared" si="35"/>
         <v>16.122209165687426</v>
       </c>
       <c r="F71" s="5">
@@ -6685,11 +6708,11 @@
     </row>
     <row r="72" spans="2:24" x14ac:dyDescent="0.3">
       <c r="C72">
-        <f>C64+G64+K64+O64+S64+W64</f>
+        <f t="shared" si="34"/>
         <v>4255</v>
       </c>
       <c r="D72">
-        <f>C72/$C$72*100</f>
+        <f t="shared" si="35"/>
         <v>100</v>
       </c>
       <c r="G72">
@@ -6739,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="S76">
-        <f>S67+W67</f>
+        <f t="shared" ref="S76:S81" si="36">S67+W67</f>
         <v>167</v>
       </c>
       <c r="T76">
@@ -6752,7 +6775,7 @@
         <v>1</v>
       </c>
       <c r="S77">
-        <f>S68+W68</f>
+        <f t="shared" si="36"/>
         <v>21</v>
       </c>
       <c r="T77">
@@ -6765,7 +6788,7 @@
         <v>2</v>
       </c>
       <c r="S78">
-        <f>S69+W69</f>
+        <f t="shared" si="36"/>
         <v>348</v>
       </c>
       <c r="T78">
@@ -6778,7 +6801,7 @@
         <v>3</v>
       </c>
       <c r="S79">
-        <f>S70+W70</f>
+        <f t="shared" si="36"/>
         <v>22</v>
       </c>
       <c r="T79">
@@ -6791,21 +6814,4622 @@
         <v>4</v>
       </c>
       <c r="S80">
-        <f>S71+W71</f>
+        <f t="shared" si="36"/>
         <v>95</v>
       </c>
       <c r="T80">
-        <f t="shared" ref="T80" si="24">S80/$S$81*100</f>
+        <f t="shared" ref="T80" si="37">S80/$S$81*100</f>
         <v>14.548238897396631</v>
       </c>
     </row>
     <row r="81" spans="19:20" x14ac:dyDescent="0.3">
       <c r="S81">
-        <f>S72+W72</f>
+        <f t="shared" si="36"/>
         <v>653</v>
       </c>
       <c r="T81">
         <f>S81/$S$81*100</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A544EDF-8789-4685-94EA-962F05605949}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>37</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>7.8891257995735611</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>7.7181208053691277</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>54</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>8.5714285714285712</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>10.526315789473683</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>120</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>8.2361015785861351</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>319</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>68.017057569296384</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>195</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>65.43624161073825</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>393</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>62.38095238095238</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>100</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>41</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="3">S4/57*100</f>
+        <v>71.929824561403507</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="4">C4+G4+K4+O4+S4</f>
+        <v>951</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="5">W4/$W$7*100</f>
+        <v>65.27110501029513</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>97</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>20.68230277185501</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>71</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>23.825503355704697</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>165</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>26.190476190476193</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>17.543859649122805</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>343</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>23.541523678792039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.4115138592750531</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.0201342281879198</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>2.9512697323266988</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>64</v>
+      </c>
+      <c r="L13">
+        <f>K13/714*100</f>
+        <v>8.9635854341736696</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>29</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>9.2063492063492074</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>93</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>8.9681774349083891</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="6">G14/7*100</f>
+        <v>57.142857142857139</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>480</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="7">K14/714*100</f>
+        <v>67.226890756302524</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>204</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="8">O14/315*100</f>
+        <v>64.761904761904759</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="9">C14+G14+K14+O14</f>
+        <v>689</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="10">W14/$W$17*100</f>
+        <v>66.441658630665373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>2</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>134</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>18.767507002801121</v>
+      </c>
+      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>72</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>22.857142857142858</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>208</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>20.057859209257472</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>36</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>5.0420168067226889</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>4.532304725168756</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>714</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>1037</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>5.0505050505050502</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>55</v>
+      </c>
+      <c r="L23">
+        <f>K23/1001*100</f>
+        <v>5.4945054945054945</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>60</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>5.4151624548736459</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>100</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>71</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H27" si="11">G24/99*100</f>
+        <v>71.717171717171709</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>688</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="12">K24/1001*100</f>
+        <v>68.731268731268742</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>5</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="13">O24/7*100</f>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="14">C24+G24+K24+O24</f>
+        <v>765</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="15">W24/$W$27*100</f>
+        <v>69.04332129963899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>20</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>20.202020202020201</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>214</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>21.378621378621379</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>234</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="15"/>
+        <v>21.119133574007222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>4.395604395604396</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="15"/>
+        <v>4.4223826714801442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="14"/>
+        <v>1108</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>26</v>
+      </c>
+      <c r="H33">
+        <f>G33/445*100</f>
+        <v>5.8426966292134832</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>26</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>5.6034482758620694</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>100</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>324</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="16">G34/445*100</f>
+        <v>72.80898876404494</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="17">K34/3*100</f>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N34" s="8">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>13</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="18">O34/15*100</f>
+        <v>86.666666666666671</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="19">C34+G34+K34+O34</f>
+        <v>340</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="20">W34/$W$37*100</f>
+        <v>73.275862068965509</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>85</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="16"/>
+        <v>19.101123595505616</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N35" s="8">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="V35" s="5">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>88</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>18.96551724137931</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="16"/>
+        <v>2.2471910112359552</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>2.1551724137931036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>445</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>464</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>16</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>9.7560975609756095</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>18</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>10.05586592178771</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>108</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="21">C44/164*100</f>
+        <v>65.853658536585371</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="22">G44/13*100</f>
+        <v>61.53846153846154</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="5">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="23">C44+G44+K44</f>
+        <v>117</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="24">W44/$W$47*100</f>
+        <v>65.363128491620117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="21"/>
+        <v>18.292682926829269</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="V45" s="5">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="23"/>
+        <v>33</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="24"/>
+        <v>18.435754189944134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="21"/>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>6.1452513966480442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>37</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>7.8556263269639066</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>23</v>
+      </c>
+      <c r="H52">
+        <v>7.7181208053691277</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>59</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>8.0054274084124835</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>161</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>6.9187795444778679</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>31</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>9.1715976331360949</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>6</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>8.1081081081081088</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="25">C4+C14+C24</f>
+        <v>321</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="26">C53/$C$56*100</f>
+        <v>68.152866242038215</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>195</v>
+      </c>
+      <c r="H53">
+        <v>65.43624161073825</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="27">K4+G14+G24+C34</f>
+        <v>469</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="28">K53/$K$56*100</f>
+        <v>63.636363636363633</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="29">O4+K14+K24+G34+C44</f>
+        <v>1603</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="30">O53/$O$56*100</f>
+        <v>68.886978942844863</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="31">O14+O24+K34+G44</f>
+        <v>219</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="32">S53/$S$56*100</f>
+        <v>64.792899408284015</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="33">S4+O34+K44</f>
+        <v>55</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="34">W53/$W$56*100</f>
+        <v>74.324324324324323</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="25"/>
+        <v>97</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>20.594479830148622</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>71</v>
+      </c>
+      <c r="H54">
+        <v>23.825503355704697</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>187</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>25.373134328358208</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="29"/>
+        <v>463</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="30"/>
+        <v>19.896862913622691</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>75</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>22.189349112426036</v>
+      </c>
+      <c r="V54" s="5">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="33"/>
+        <v>13</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="34"/>
+        <v>17.567567567567568</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="25"/>
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>3.397027600849257</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>3.0201342281879198</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>2.9850746268656714</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="29"/>
+        <v>100</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="30"/>
+        <v>4.2973785990545768</v>
+      </c>
+      <c r="R55" s="5">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="V55" s="5">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="29"/>
+        <v>2327</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>317</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>7.4676089517078923</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>120</v>
+      </c>
+      <c r="H61">
+        <v>8.2361015785861351</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>93</v>
+      </c>
+      <c r="L61">
+        <v>8.9681774349083891</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>60</v>
+      </c>
+      <c r="P61">
+        <v>5.4151624548736459</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>26</v>
+      </c>
+      <c r="T61">
+        <v>5.6034482758620694</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>18</v>
+      </c>
+      <c r="X61">
+        <v>10.05586592178771</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="35">C53+G53+K53+O53+S53+W53</f>
+        <v>2862</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="36">C62/$C$65*100</f>
+        <v>67.420494699646639</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>951</v>
+      </c>
+      <c r="H62">
+        <v>65.27110501029513</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>689</v>
+      </c>
+      <c r="L62">
+        <v>66.441658630665373</v>
+      </c>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>765</v>
+      </c>
+      <c r="P62">
+        <v>69.04332129963899</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>340</v>
+      </c>
+      <c r="T62">
+        <v>73.275862068965509</v>
+      </c>
+      <c r="V62" s="5">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>117</v>
+      </c>
+      <c r="X62">
+        <v>65.363128491620117</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="35"/>
+        <v>906</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="36"/>
+        <v>21.342756183745585</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>343</v>
+      </c>
+      <c r="H63">
+        <v>23.541523678792039</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>208</v>
+      </c>
+      <c r="L63">
+        <v>20.057859209257472</v>
+      </c>
+      <c r="N63" s="5">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>234</v>
+      </c>
+      <c r="P63">
+        <v>21.119133574007222</v>
+      </c>
+      <c r="R63" s="5">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>88</v>
+      </c>
+      <c r="T63">
+        <v>18.96551724137931</v>
+      </c>
+      <c r="V63" s="5">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>33</v>
+      </c>
+      <c r="X63">
+        <v>18.435754189944134</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="35"/>
+        <v>160</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="36"/>
+        <v>3.7691401648998819</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>43</v>
+      </c>
+      <c r="H64">
+        <v>2.9512697323266988</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>47</v>
+      </c>
+      <c r="L64">
+        <v>4.532304725168756</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>49</v>
+      </c>
+      <c r="P64">
+        <v>4.4223826714801442</v>
+      </c>
+      <c r="R64" s="5">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>2.1551724137931036</v>
+      </c>
+      <c r="V64" s="5">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>11</v>
+      </c>
+      <c r="X64">
+        <v>6.1452513966480442</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>4245</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1037</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1108</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>464</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="5">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>44</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>6.8429237947122861</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="37">S62+W62</f>
+        <v>457</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="38">S70/$S$73*100</f>
+        <v>71.073094867807157</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="5">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="37"/>
+        <v>121</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="38"/>
+        <v>18.818040435458787</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="5">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="38"/>
+        <v>3.2659409020217729</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="37"/>
+        <v>643</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="38"/>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56E64EA-385E-4A75-BB1F-3146A99DA890}">
+  <dimension ref="A1:X73"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="12" max="12" width="6.109375" customWidth="1"/>
+    <col min="16" max="16" width="6.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>134</v>
+      </c>
+      <c r="D3">
+        <f>C3/469*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>123</v>
+      </c>
+      <c r="H3">
+        <f>G3/298*100</f>
+        <v>41.275167785234899</v>
+      </c>
+      <c r="J3" s="8">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>205</v>
+      </c>
+      <c r="L3">
+        <f>K3/630*100</f>
+        <v>32.539682539682538</v>
+      </c>
+      <c r="N3" s="8">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>3</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="R3" s="8">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>20</v>
+      </c>
+      <c r="T3">
+        <f>S3/57*100</f>
+        <v>35.087719298245609</v>
+      </c>
+      <c r="V3" s="5">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <f>C3+G3+K3+O3+S3</f>
+        <v>485</v>
+      </c>
+      <c r="X3">
+        <f>W3/$W$7*100</f>
+        <v>33.287577213452302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B4" s="8">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>109</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D7" si="0">C4/469*100</f>
+        <v>23.240938166311302</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>79</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H7" si="1">G4/298*100</f>
+        <v>26.51006711409396</v>
+      </c>
+      <c r="J4" s="8">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>201</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L7" si="2">K4/630*100</f>
+        <v>31.904761904761902</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="8">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>11</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T7" si="3">S4/57*100</f>
+        <v>19.298245614035086</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <f t="shared" ref="W4:W7" si="4">C4+G4+K4+O4+S4</f>
+        <v>400</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X7" si="5">W4/$W$7*100</f>
+        <v>27.453671928620455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>209</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>44.562899786780385</v>
+      </c>
+      <c r="F5" s="8">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>87</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="1"/>
+        <v>29.194630872483224</v>
+      </c>
+      <c r="J5" s="8">
+        <v>2</v>
+      </c>
+      <c r="K5">
+        <v>206</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>32.698412698412696</v>
+      </c>
+      <c r="N5" s="8">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="8">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="3"/>
+        <v>45.614035087719294</v>
+      </c>
+      <c r="V5" s="5">
+        <v>2</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>528</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="5"/>
+        <v>36.238846945778995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B6" s="8">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>3.624733475479744</v>
+      </c>
+      <c r="F6" s="8">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>9</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>3.0201342281879198</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>18</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>2.8571428571428572</v>
+      </c>
+      <c r="N6" s="5">
+        <v>3</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="8">
+        <v>3</v>
+      </c>
+      <c r="S6" s="6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>3.0199039121482496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C7" s="6">
+        <f>SUM(C3:C6)</f>
+        <v>469</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>298</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="K7" s="6">
+        <f>SUM(K3:K6)</f>
+        <v>630</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="6">
+        <v>3</v>
+      </c>
+      <c r="P7">
+        <v>100</v>
+      </c>
+      <c r="S7" s="6">
+        <f>SUM(S3:S6)</f>
+        <v>57</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="4"/>
+        <v>1457</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="5">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>100</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <f>G13/7*100</f>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>178</v>
+      </c>
+      <c r="L13">
+        <f>K13/714*100</f>
+        <v>24.929971988795518</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>90</v>
+      </c>
+      <c r="P13">
+        <f>O13/315*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f>C13+G13+K13+O13</f>
+        <v>270</v>
+      </c>
+      <c r="X13">
+        <f>W13/$W$17*100</f>
+        <v>26.036644165863066</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ref="H14:H17" si="6">G14/7*100</f>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>157</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ref="L14:L17" si="7">K14/714*100</f>
+        <v>21.988795518207283</v>
+      </c>
+      <c r="N14" s="8">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>85</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ref="P14:P17" si="8">O14/315*100</f>
+        <v>26.984126984126984</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ref="W14:W17" si="9">C14+G14+K14+O14</f>
+        <v>244</v>
+      </c>
+      <c r="X14">
+        <f t="shared" ref="X14:X17" si="10">W14/$W$17*100</f>
+        <v>23.52941176470588</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B15" s="8">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="6"/>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2</v>
+      </c>
+      <c r="K15">
+        <v>342</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="7"/>
+        <v>47.899159663865547</v>
+      </c>
+      <c r="N15" s="8">
+        <v>2</v>
+      </c>
+      <c r="O15">
+        <v>130</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>41.269841269841265</v>
+      </c>
+      <c r="V15" s="5">
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="9"/>
+        <v>475</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="10"/>
+        <v>45.805207328833177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="6"/>
+        <v>14.285714285714285</v>
+      </c>
+      <c r="J16" s="8">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>37</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="7"/>
+        <v>5.1820728291316529</v>
+      </c>
+      <c r="N16" s="8">
+        <v>3</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>3.1746031746031744</v>
+      </c>
+      <c r="V16" s="5">
+        <v>3</v>
+      </c>
+      <c r="W16">
+        <f t="shared" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="X16">
+        <f t="shared" si="10"/>
+        <v>4.628736740597879</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="6">
+        <f>SUM(G13:G16)</f>
+        <v>7</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="K17" s="6">
+        <f>SUM(K13:K16)</f>
+        <v>714</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+      <c r="O17" s="6">
+        <f>SUM(O13:O16)</f>
+        <v>315</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>100</v>
+      </c>
+      <c r="W17">
+        <f t="shared" si="9"/>
+        <v>1037</v>
+      </c>
+      <c r="X17">
+        <f t="shared" si="10"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B23" s="8">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>100</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>25</v>
+      </c>
+      <c r="H23">
+        <f>G23/99*100</f>
+        <v>25.252525252525253</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>268</v>
+      </c>
+      <c r="L23">
+        <f>K23/1001*100</f>
+        <v>26.773226773226771</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23">
+        <f>O23/7*100</f>
+        <v>42.857142857142854</v>
+      </c>
+      <c r="V23" s="5">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <f>C23+G23+K23+O23</f>
+        <v>297</v>
+      </c>
+      <c r="X23">
+        <f>W23/$W$27*100</f>
+        <v>26.805054151624546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="F24" s="8">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>20</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ref="H24:H28" si="11">G24/99*100</f>
+        <v>20.202020202020201</v>
+      </c>
+      <c r="J24" s="8">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>241</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:L27" si="12">K24/1001*100</f>
+        <v>24.075924075924078</v>
+      </c>
+      <c r="N24" s="8">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="13">O24/7*100</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="5">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <f t="shared" ref="W24:W27" si="14">C24+G24+K24+O24</f>
+        <v>261</v>
+      </c>
+      <c r="X24">
+        <f t="shared" ref="X24:X27" si="15">W24/$W$27*100</f>
+        <v>23.555956678700358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B25" s="5">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="8">
+        <v>2</v>
+      </c>
+      <c r="G25">
+        <v>51</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="11"/>
+        <v>51.515151515151516</v>
+      </c>
+      <c r="J25" s="8">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>448</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="12"/>
+        <v>44.755244755244753</v>
+      </c>
+      <c r="N25" s="8">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="13"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V25" s="5">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <f t="shared" si="14"/>
+        <v>501</v>
+      </c>
+      <c r="X25">
+        <f t="shared" si="15"/>
+        <v>45.216606498194942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B26" s="5">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="11"/>
+        <v>3.0303030303030303</v>
+      </c>
+      <c r="J26" s="8">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>44</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="12"/>
+        <v>4.395604395604396</v>
+      </c>
+      <c r="N26" s="8">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>2</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="13"/>
+        <v>28.571428571428569</v>
+      </c>
+      <c r="V26" s="5">
+        <v>3</v>
+      </c>
+      <c r="W26">
+        <f t="shared" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="X26">
+        <f t="shared" si="15"/>
+        <v>4.4223826714801442</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="G27" s="6">
+        <f>SUM(G23:G26)</f>
+        <v>99</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="K27" s="6">
+        <f>SUM(K23:K26)</f>
+        <v>1001</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="O27" s="6">
+        <f>SUM(O23:O26)</f>
+        <v>7</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="W27">
+        <f t="shared" si="14"/>
+        <v>1108</v>
+      </c>
+      <c r="X27">
+        <f t="shared" si="15"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="W32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B33" s="5">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="F33" s="8">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>96</v>
+      </c>
+      <c r="H33">
+        <f>G33/445*100</f>
+        <v>21.573033707865168</v>
+      </c>
+      <c r="J33" s="8">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <f>K33/3*100</f>
+        <v>33.333333333333329</v>
+      </c>
+      <c r="N33" s="8">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>3</v>
+      </c>
+      <c r="P33">
+        <f>O33/15*100</f>
+        <v>20</v>
+      </c>
+      <c r="V33" s="5">
+        <v>0</v>
+      </c>
+      <c r="W33">
+        <f>C33+G33+K33+O33</f>
+        <v>100</v>
+      </c>
+      <c r="X33">
+        <f>W33/$W$37*100</f>
+        <v>21.551724137931032</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="F34" s="8">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>96</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ref="H34:H37" si="16">G34/445*100</f>
+        <v>21.573033707865168</v>
+      </c>
+      <c r="J34" s="8">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" ref="L34:L37" si="17">K34/3*100</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="8">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>3</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="18">O34/15*100</f>
+        <v>20</v>
+      </c>
+      <c r="V34" s="5">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <f t="shared" ref="W34:W37" si="19">C34+G34+K34+O34</f>
+        <v>99</v>
+      </c>
+      <c r="X34">
+        <f t="shared" ref="X34:X37" si="20">W34/$W$37*100</f>
+        <v>21.336206896551722</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
+      <c r="F35" s="8">
+        <v>2</v>
+      </c>
+      <c r="G35">
+        <v>243</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="16"/>
+        <v>54.606741573033716</v>
+      </c>
+      <c r="J35" s="5">
+        <v>2</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="17"/>
+        <v>66.666666666666657</v>
+      </c>
+      <c r="N35" s="8">
+        <v>2</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="18"/>
+        <v>60</v>
+      </c>
+      <c r="V35" s="5">
+        <v>2</v>
+      </c>
+      <c r="W35">
+        <f t="shared" si="19"/>
+        <v>255</v>
+      </c>
+      <c r="X35">
+        <f t="shared" si="20"/>
+        <v>54.956896551724135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B36" s="5">
+        <v>3</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="16"/>
+        <v>2.2471910112359552</v>
+      </c>
+      <c r="J36" s="5">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="8">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V36" s="5">
+        <v>3</v>
+      </c>
+      <c r="W36">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="X36">
+        <f t="shared" si="20"/>
+        <v>2.1551724137931036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>100</v>
+      </c>
+      <c r="G37" s="6">
+        <f>SUM(G33:G36)</f>
+        <v>445</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="16"/>
+        <v>100</v>
+      </c>
+      <c r="K37" s="6">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="17"/>
+        <v>100</v>
+      </c>
+      <c r="O37" s="6">
+        <f>SUM(O33:O36)</f>
+        <v>15</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="18"/>
+        <v>100</v>
+      </c>
+      <c r="W37">
+        <f t="shared" si="19"/>
+        <v>464</v>
+      </c>
+      <c r="X37">
+        <f t="shared" si="20"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B43" s="8">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>45</v>
+      </c>
+      <c r="D43">
+        <f>C43/164*100</f>
+        <v>27.439024390243905</v>
+      </c>
+      <c r="F43" s="8">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>5</v>
+      </c>
+      <c r="H43">
+        <f>G43/13*100</f>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J43" s="5">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="V43" s="5">
+        <v>0</v>
+      </c>
+      <c r="W43">
+        <f>C43+G43+K43</f>
+        <v>50</v>
+      </c>
+      <c r="X43">
+        <f>W43/$W$47*100</f>
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B44" s="8">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>35</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ref="D44:D47" si="21">C44/164*100</f>
+        <v>21.341463414634145</v>
+      </c>
+      <c r="F44" s="8">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ref="H44:H47" si="22">G44/13*100</f>
+        <v>38.461538461538467</v>
+      </c>
+      <c r="J44" s="8">
+        <v>1</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>50</v>
+      </c>
+      <c r="V44" s="5">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <f t="shared" ref="W44:W47" si="23">C44+G44+K44</f>
+        <v>41</v>
+      </c>
+      <c r="X44">
+        <f t="shared" ref="X44:X47" si="24">W44/$W$47*100</f>
+        <v>22.905027932960895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B45" s="8">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>74</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="21"/>
+        <v>45.121951219512198</v>
+      </c>
+      <c r="F45" s="8">
+        <v>2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="22"/>
+        <v>15.384615384615385</v>
+      </c>
+      <c r="J45" s="8">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>50</v>
+      </c>
+      <c r="V45" s="5">
+        <v>2</v>
+      </c>
+      <c r="W45">
+        <f t="shared" si="23"/>
+        <v>77</v>
+      </c>
+      <c r="X45">
+        <f t="shared" si="24"/>
+        <v>43.016759776536311</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B46" s="8">
+        <v>3</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="21"/>
+        <v>6.0975609756097562</v>
+      </c>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="22"/>
+        <v>7.6923076923076925</v>
+      </c>
+      <c r="J46" s="5">
+        <v>3</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="V46" s="5">
+        <v>3</v>
+      </c>
+      <c r="W46">
+        <f t="shared" si="23"/>
+        <v>11</v>
+      </c>
+      <c r="X46">
+        <f t="shared" si="24"/>
+        <v>6.1452513966480442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C47" s="6">
+        <f>SUM(C43:C46)</f>
+        <v>164</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="21"/>
+        <v>100</v>
+      </c>
+      <c r="G47" s="6">
+        <f>SUM(G43:G46)</f>
+        <v>13</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="22"/>
+        <v>100</v>
+      </c>
+      <c r="K47" s="6">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="W47">
+        <f t="shared" si="23"/>
+        <v>179</v>
+      </c>
+      <c r="X47">
+        <f t="shared" si="24"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" s="7" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R51" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B52" s="5">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>C3+C13+C23</f>
+        <v>136</v>
+      </c>
+      <c r="D52">
+        <f>C52/$C$56*100</f>
+        <v>28.874734607218684</v>
+      </c>
+      <c r="F52" s="8">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>123</v>
+      </c>
+      <c r="H52">
+        <v>41.275167785234899</v>
+      </c>
+      <c r="J52" s="5">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>K3+G13+G23+C33</f>
+        <v>231</v>
+      </c>
+      <c r="L52">
+        <f>K52/$K$56*100</f>
+        <v>31.343283582089555</v>
+      </c>
+      <c r="N52" s="5">
+        <v>0</v>
+      </c>
+      <c r="O52">
+        <f>O3+K13+K23+G33+C43</f>
+        <v>590</v>
+      </c>
+      <c r="P52">
+        <f>O52/$O$56*100</f>
+        <v>25.354533734422002</v>
+      </c>
+      <c r="R52" s="5">
+        <v>0</v>
+      </c>
+      <c r="S52">
+        <f>O13+O23+K33+G43</f>
+        <v>99</v>
+      </c>
+      <c r="T52">
+        <f>S52/$S$56*100</f>
+        <v>29.289940828402365</v>
+      </c>
+      <c r="V52" s="5">
+        <v>0</v>
+      </c>
+      <c r="W52">
+        <f>S3+O33+K43</f>
+        <v>23</v>
+      </c>
+      <c r="X52">
+        <f>W52/$W$56*100</f>
+        <v>31.081081081081081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B53" s="5">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <f t="shared" ref="C53:C56" si="25">C4+C14+C24</f>
+        <v>109</v>
+      </c>
+      <c r="D53">
+        <f t="shared" ref="D53:D56" si="26">C53/$C$56*100</f>
+        <v>23.142250530785564</v>
+      </c>
+      <c r="F53" s="8">
+        <v>1</v>
+      </c>
+      <c r="G53">
+        <v>79</v>
+      </c>
+      <c r="H53">
+        <v>26.51006711409396</v>
+      </c>
+      <c r="J53" s="5">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <f t="shared" ref="K53:K56" si="27">K4+G14+G24+C34</f>
+        <v>223</v>
+      </c>
+      <c r="L53">
+        <f t="shared" ref="L53:L56" si="28">K53/$K$56*100</f>
+        <v>30.257801899592945</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:O56" si="29">O4+K14+K24+G34+C44</f>
+        <v>529</v>
+      </c>
+      <c r="P53">
+        <f t="shared" ref="P53:P56" si="30">O53/$O$56*100</f>
+        <v>22.733132788998709</v>
+      </c>
+      <c r="R53" s="5">
+        <v>1</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S56" si="31">O14+O24+K34+G44</f>
+        <v>90</v>
+      </c>
+      <c r="T53">
+        <f t="shared" ref="T53:T56" si="32">S53/$S$56*100</f>
+        <v>26.627218934911244</v>
+      </c>
+      <c r="V53" s="5">
+        <v>1</v>
+      </c>
+      <c r="W53">
+        <f t="shared" ref="W53:W56" si="33">S4+O34+K44</f>
+        <v>15</v>
+      </c>
+      <c r="X53">
+        <f t="shared" ref="X53:X56" si="34">W53/$W$56*100</f>
+        <v>20.27027027027027</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B54" s="5">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="25"/>
+        <v>209</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="26"/>
+        <v>44.373673036093422</v>
+      </c>
+      <c r="F54" s="8">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>87</v>
+      </c>
+      <c r="H54">
+        <v>29.194630872483224</v>
+      </c>
+      <c r="J54" s="5">
+        <v>2</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="27"/>
+        <v>261</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="28"/>
+        <v>35.413839891451829</v>
+      </c>
+      <c r="N54" s="5">
+        <v>2</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="29"/>
+        <v>1107</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="30"/>
+        <v>47.571981091534163</v>
+      </c>
+      <c r="R54" s="5">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="31"/>
+        <v>136</v>
+      </c>
+      <c r="T54">
+        <f t="shared" si="32"/>
+        <v>40.236686390532547</v>
+      </c>
+      <c r="V54" s="5">
+        <v>2</v>
+      </c>
+      <c r="W54">
+        <f t="shared" si="33"/>
+        <v>36</v>
+      </c>
+      <c r="X54">
+        <f t="shared" si="34"/>
+        <v>48.648648648648653</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B55" s="5">
+        <v>3</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="26"/>
+        <v>3.6093418259023355</v>
+      </c>
+      <c r="F55" s="8">
+        <v>3</v>
+      </c>
+      <c r="G55">
+        <v>9</v>
+      </c>
+      <c r="H55">
+        <v>3.0201342281879198</v>
+      </c>
+      <c r="J55" s="5">
+        <v>3</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="27"/>
+        <v>22</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="28"/>
+        <v>2.9850746268656714</v>
+      </c>
+      <c r="N55" s="5">
+        <v>3</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="29"/>
+        <v>101</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="30"/>
+        <v>4.3403523850451222</v>
+      </c>
+      <c r="R55" s="5">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="31"/>
+        <v>13</v>
+      </c>
+      <c r="T55">
+        <f t="shared" si="32"/>
+        <v>3.8461538461538463</v>
+      </c>
+      <c r="V55" s="5">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="C56">
+        <f t="shared" si="25"/>
+        <v>471</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="26"/>
+        <v>100</v>
+      </c>
+      <c r="G56">
+        <v>298</v>
+      </c>
+      <c r="H56">
+        <v>100</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="27"/>
+        <v>737</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="28"/>
+        <v>100</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="29"/>
+        <v>2327</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="30"/>
+        <v>100</v>
+      </c>
+      <c r="S56">
+        <f t="shared" si="31"/>
+        <v>338</v>
+      </c>
+      <c r="T56">
+        <f t="shared" si="32"/>
+        <v>100</v>
+      </c>
+      <c r="W56">
+        <f t="shared" si="33"/>
+        <v>74</v>
+      </c>
+      <c r="X56">
+        <f t="shared" si="34"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T60" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="W60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X60" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B61" s="5">
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>C52+G52+K52+O52+S52+W52</f>
+        <v>1202</v>
+      </c>
+      <c r="D61">
+        <f>C61/$C$65*100</f>
+        <v>28.315665488810364</v>
+      </c>
+      <c r="F61" s="5">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>485</v>
+      </c>
+      <c r="H61">
+        <v>33.287577213452302</v>
+      </c>
+      <c r="J61" s="5">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>270</v>
+      </c>
+      <c r="L61">
+        <v>26.036644165863066</v>
+      </c>
+      <c r="N61" s="5">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>297</v>
+      </c>
+      <c r="P61">
+        <v>26.805054151624546</v>
+      </c>
+      <c r="R61" s="5">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>100</v>
+      </c>
+      <c r="T61">
+        <v>21.551724137931032</v>
+      </c>
+      <c r="V61" s="5">
+        <v>0</v>
+      </c>
+      <c r="W61">
+        <v>50</v>
+      </c>
+      <c r="X61">
+        <v>27.932960893854748</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B62" s="5">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <f t="shared" ref="C62:C65" si="35">C53+G53+K53+O53+S53+W53</f>
+        <v>1045</v>
+      </c>
+      <c r="D62">
+        <f t="shared" ref="D62:D65" si="36">C62/$C$65*100</f>
+        <v>24.617196702002357</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62">
+        <v>400</v>
+      </c>
+      <c r="H62">
+        <v>27.453671928620455</v>
+      </c>
+      <c r="J62" s="5">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>244</v>
+      </c>
+      <c r="L62">
+        <v>23.52941176470588</v>
+      </c>
+      <c r="N62" s="5">
+        <v>1</v>
+      </c>
+      <c r="O62">
+        <v>261</v>
+      </c>
+      <c r="P62">
+        <v>23.555956678700358</v>
+      </c>
+      <c r="R62" s="5">
+        <v>1</v>
+      </c>
+      <c r="S62">
+        <v>99</v>
+      </c>
+      <c r="T62">
+        <v>21.336206896551722</v>
+      </c>
+      <c r="V62" s="5">
+        <v>1</v>
+      </c>
+      <c r="W62">
+        <v>41</v>
+      </c>
+      <c r="X62">
+        <v>22.905027932960895</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B63" s="5">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="35"/>
+        <v>1836</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="36"/>
+        <v>43.25088339222615</v>
+      </c>
+      <c r="F63" s="5">
+        <v>2</v>
+      </c>
+      <c r="G63">
+        <v>528</v>
+      </c>
+      <c r="H63">
+        <v>36.238846945778995</v>
+      </c>
+      <c r="J63" s="5">
+        <v>2</v>
+      </c>
+      <c r="K63">
+        <v>475</v>
+      </c>
+      <c r="L63">
+        <v>45.805207328833177</v>
+      </c>
+      <c r="N63" s="5">
+        <v>2</v>
+      </c>
+      <c r="O63">
+        <v>501</v>
+      </c>
+      <c r="P63">
+        <v>45.216606498194942</v>
+      </c>
+      <c r="R63" s="5">
+        <v>2</v>
+      </c>
+      <c r="S63">
+        <v>255</v>
+      </c>
+      <c r="T63">
+        <v>54.956896551724135</v>
+      </c>
+      <c r="V63" s="5">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>77</v>
+      </c>
+      <c r="X63">
+        <v>43.016759776536311</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="B64" s="5">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="35"/>
+        <v>162</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="36"/>
+        <v>3.8162544169611312</v>
+      </c>
+      <c r="F64" s="5">
+        <v>3</v>
+      </c>
+      <c r="G64">
+        <v>44</v>
+      </c>
+      <c r="H64">
+        <v>3.0199039121482496</v>
+      </c>
+      <c r="J64" s="5">
+        <v>3</v>
+      </c>
+      <c r="K64">
+        <v>48</v>
+      </c>
+      <c r="L64">
+        <v>4.628736740597879</v>
+      </c>
+      <c r="N64" s="5">
+        <v>3</v>
+      </c>
+      <c r="O64">
+        <v>49</v>
+      </c>
+      <c r="P64">
+        <v>4.4223826714801442</v>
+      </c>
+      <c r="R64" s="5">
+        <v>3</v>
+      </c>
+      <c r="S64">
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <v>2.1551724137931036</v>
+      </c>
+      <c r="V64" s="5">
+        <v>3</v>
+      </c>
+      <c r="W64">
+        <v>11</v>
+      </c>
+      <c r="X64">
+        <v>6.1452513966480442</v>
+      </c>
+    </row>
+    <row r="65" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="C65">
+        <f t="shared" si="35"/>
+        <v>4245</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="36"/>
+        <v>100</v>
+      </c>
+      <c r="G65">
+        <v>1457</v>
+      </c>
+      <c r="H65">
+        <v>100</v>
+      </c>
+      <c r="K65">
+        <v>1037</v>
+      </c>
+      <c r="L65">
+        <v>100</v>
+      </c>
+      <c r="O65">
+        <v>1108</v>
+      </c>
+      <c r="P65">
+        <v>100</v>
+      </c>
+      <c r="S65">
+        <v>464</v>
+      </c>
+      <c r="T65">
+        <v>100</v>
+      </c>
+      <c r="W65">
+        <v>179</v>
+      </c>
+      <c r="X65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R69" s="5">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <f>S61+W61</f>
+        <v>150</v>
+      </c>
+      <c r="T69">
+        <f>S69/$S$73*100</f>
+        <v>23.32814930015552</v>
+      </c>
+    </row>
+    <row r="70" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R70" s="5">
+        <v>1</v>
+      </c>
+      <c r="S70">
+        <f t="shared" ref="S70:S73" si="37">S62+W62</f>
+        <v>140</v>
+      </c>
+      <c r="T70">
+        <f t="shared" ref="T70:T73" si="38">S70/$S$73*100</f>
+        <v>21.772939346811821</v>
+      </c>
+    </row>
+    <row r="71" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R71" s="5">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <f t="shared" si="37"/>
+        <v>332</v>
+      </c>
+      <c r="T71">
+        <f t="shared" si="38"/>
+        <v>51.632970451010884</v>
+      </c>
+    </row>
+    <row r="72" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="R72" s="5">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <f t="shared" si="37"/>
+        <v>21</v>
+      </c>
+      <c r="T72">
+        <f t="shared" si="38"/>
+        <v>3.2659409020217729</v>
+      </c>
+    </row>
+    <row r="73" spans="3:24" x14ac:dyDescent="0.3">
+      <c r="S73">
+        <f t="shared" si="37"/>
+        <v>643</v>
+      </c>
+      <c r="T73">
+        <f t="shared" si="38"/>
         <v>100</v>
       </c>
     </row>
